--- a/excel_template.xlsx
+++ b/excel_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/baseline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F85FF7-670F-49AB-BE1F-16A0E7BF0B92}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35C3DB2-AF40-4BE3-BD18-86995B462069}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="baseline" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,9 +42,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Only enter values in the yellow cells, green cells are optional. Add more yellow cells if there are more rows in the table. Do not change any other cells. Summary statistics that are medians cannot be used.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Continuous variables, group sample size (N), mean and standard deviation</t>
+  </si>
+  <si>
+    <t>Only enter values in the yellow cells, green cells are optional. Add more yellow cells if there are more rows in the table. Add more columns and headers (e.g., Mean) if there are more groups, but keeping the same structure. Do not change any other cells. Summary statistics that are medians cannot be used.</t>
   </si>
 </sst>
 </file>
@@ -137,11 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -427,7 +426,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,17 +441,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
+      <c r="A3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -474,8 +473,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -485,7 +484,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -494,7 +493,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -504,12 +503,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -520,13 +519,13 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -534,14 +533,14 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
